--- a/Wahlverteiler/test.xlsx
+++ b/Wahlverteiler/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="371">
   <si>
     <t/>
   </si>
@@ -89,129 +89,138 @@
     <t>Carolin</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Bazzoli</t>
+  </si>
+  <si>
+    <t>Alissa</t>
+  </si>
+  <si>
+    <t>EW LK</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>Becht</t>
+  </si>
+  <si>
+    <t>Ben Aaron</t>
+  </si>
+  <si>
+    <t>EK</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Behl</t>
+  </si>
+  <si>
+    <t>Vinzenz</t>
+  </si>
+  <si>
+    <t>Benkner</t>
+  </si>
+  <si>
+    <t>Lara</t>
+  </si>
+  <si>
+    <t>GEH</t>
+  </si>
+  <si>
+    <t>Bienert</t>
+  </si>
+  <si>
+    <t>Juliane</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>Biesek</t>
+  </si>
+  <si>
+    <t>Christoph Daniel</t>
+  </si>
+  <si>
+    <t>D LK</t>
+  </si>
+  <si>
+    <t>ERW</t>
+  </si>
+  <si>
+    <t>Birjukov</t>
+  </si>
+  <si>
+    <t>Katharina</t>
+  </si>
+  <si>
+    <t>Breitenbruch</t>
+  </si>
+  <si>
+    <t>Indra</t>
+  </si>
+  <si>
+    <t>Buse</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>MÖ</t>
+  </si>
+  <si>
+    <t>Böckmann</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Damrow</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
     <t>BI</t>
   </si>
   <si>
+    <t>WF</t>
+  </si>
+  <si>
+    <t>Daun</t>
+  </si>
+  <si>
+    <t>Kathrin</t>
+  </si>
+  <si>
+    <t>Dornhofer</t>
+  </si>
+  <si>
+    <t>Finja</t>
+  </si>
+  <si>
+    <t>Engels</t>
+  </si>
+  <si>
+    <t>Michelle Margarete</t>
+  </si>
+  <si>
     <t>SRO</t>
   </si>
   <si>
-    <t>Bazzoli</t>
-  </si>
-  <si>
-    <t>Alissa</t>
-  </si>
-  <si>
-    <t>EW LK</t>
-  </si>
-  <si>
-    <t>POS</t>
-  </si>
-  <si>
-    <t>Becht</t>
-  </si>
-  <si>
-    <t>Ben Aaron</t>
-  </si>
-  <si>
-    <t>EK</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>Behl</t>
-  </si>
-  <si>
-    <t>Vinzenz</t>
-  </si>
-  <si>
-    <t>Benkner</t>
-  </si>
-  <si>
-    <t>Lara</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>GEH</t>
-  </si>
-  <si>
-    <t>Bienert</t>
-  </si>
-  <si>
-    <t>Juliane</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>SAT</t>
-  </si>
-  <si>
-    <t>Biesek</t>
-  </si>
-  <si>
-    <t>Christoph Daniel</t>
-  </si>
-  <si>
-    <t>D LK</t>
-  </si>
-  <si>
-    <t>ERW</t>
-  </si>
-  <si>
-    <t>Birjukov</t>
-  </si>
-  <si>
-    <t>Katharina</t>
-  </si>
-  <si>
-    <t>Breitenbruch</t>
-  </si>
-  <si>
-    <t>Indra</t>
-  </si>
-  <si>
-    <t>Buse</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Böckmann</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>Damrow</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Daun</t>
-  </si>
-  <si>
-    <t>Kathrin</t>
-  </si>
-  <si>
-    <t>WF</t>
-  </si>
-  <si>
-    <t>Dornhofer</t>
-  </si>
-  <si>
-    <t>Finja</t>
-  </si>
-  <si>
-    <t>Engels</t>
-  </si>
-  <si>
-    <t>Michelle Margarete</t>
-  </si>
-  <si>
     <t>Ere</t>
   </si>
   <si>
@@ -239,18 +248,12 @@
     <t>COR</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Flüs</t>
   </si>
   <si>
     <t>Leonie</t>
   </si>
   <si>
-    <t>WB</t>
-  </si>
-  <si>
     <t>Gallidabino</t>
   </si>
   <si>
@@ -293,231 +296,234 @@
     <t>Goray</t>
   </si>
   <si>
+    <t>Graef</t>
+  </si>
+  <si>
+    <t>Tobias</t>
+  </si>
+  <si>
+    <t>Gurinovich</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>BRO</t>
+  </si>
+  <si>
+    <t>Göbelsmann</t>
+  </si>
+  <si>
+    <t>Philipp</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>Götze</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Hahn</t>
+  </si>
+  <si>
+    <t>Tim-Frederik</t>
+  </si>
+  <si>
+    <t>Hansen</t>
+  </si>
+  <si>
+    <t>Nele Kristin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E </t>
+  </si>
+  <si>
+    <t>Hellwig</t>
+  </si>
+  <si>
+    <t>Malte</t>
+  </si>
+  <si>
+    <t>Henting</t>
+  </si>
+  <si>
+    <t>Anna-Maria</t>
+  </si>
+  <si>
+    <t>Hess</t>
+  </si>
+  <si>
+    <t>Heyda</t>
+  </si>
+  <si>
+    <t>Nadine</t>
+  </si>
+  <si>
+    <t>Hoffmann</t>
+  </si>
+  <si>
+    <t>Madita</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>HAR</t>
+  </si>
+  <si>
+    <t>Huck</t>
+  </si>
+  <si>
+    <t>Alexander-Friedrich</t>
+  </si>
+  <si>
+    <t>Hölterhoff</t>
+  </si>
+  <si>
+    <t>Ipta</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Jansen</t>
+  </si>
+  <si>
+    <t>Lukas</t>
+  </si>
+  <si>
+    <t>Kaspers</t>
+  </si>
+  <si>
+    <t>Ann-Kathrin</t>
+  </si>
+  <si>
+    <t>Kawohl</t>
+  </si>
+  <si>
+    <t>Svenja Madlen</t>
+  </si>
+  <si>
+    <t>Kirsch</t>
+  </si>
+  <si>
+    <t>Ricarda</t>
+  </si>
+  <si>
+    <t>Klauer</t>
+  </si>
+  <si>
+    <t>Anna Nicolina</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Kleemann-Kleinpoppen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cedric </t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>WEN</t>
+  </si>
+  <si>
+    <t>Kleischmann</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Klug</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>LÜ</t>
+  </si>
+  <si>
+    <t>Kluth</t>
+  </si>
+  <si>
+    <t>Jana Magdalena</t>
+  </si>
+  <si>
+    <t>KU</t>
+  </si>
+  <si>
+    <t>Knebelkamp</t>
+  </si>
+  <si>
+    <t>Chiara Augusta</t>
+  </si>
+  <si>
     <t>CH</t>
   </si>
   <si>
     <t>THY</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Graef</t>
-  </si>
-  <si>
-    <t>Tobias</t>
-  </si>
-  <si>
-    <t>Gurinovich</t>
-  </si>
-  <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>BRO</t>
-  </si>
-  <si>
-    <t>Göbelsmann</t>
-  </si>
-  <si>
-    <t>Philipp</t>
-  </si>
-  <si>
-    <t>BM</t>
-  </si>
-  <si>
-    <t>Götze</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Hahn</t>
-  </si>
-  <si>
-    <t>Tim-Frederik</t>
-  </si>
-  <si>
-    <t>Hansen</t>
-  </si>
-  <si>
-    <t>Nele Kristin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E </t>
-  </si>
-  <si>
-    <t>Hellwig</t>
-  </si>
-  <si>
-    <t>Malte</t>
-  </si>
-  <si>
-    <t>Henting</t>
-  </si>
-  <si>
-    <t>Anna-Maria</t>
-  </si>
-  <si>
-    <t>Hess</t>
+    <t>Knepper</t>
+  </si>
+  <si>
+    <t>Matthias</t>
+  </si>
+  <si>
+    <t>Knoblich</t>
+  </si>
+  <si>
+    <t>Jul Noah</t>
+  </si>
+  <si>
+    <t>REU</t>
+  </si>
+  <si>
+    <t>Koch</t>
+  </si>
+  <si>
+    <t>Marius</t>
   </si>
   <si>
     <t>PH</t>
   </si>
   <si>
+    <t>RÖM</t>
+  </si>
+  <si>
+    <t>Kolb</t>
+  </si>
+  <si>
+    <t>LÜR</t>
+  </si>
+  <si>
+    <t>Kratsch</t>
+  </si>
+  <si>
+    <t>Krebs</t>
+  </si>
+  <si>
+    <t>Niklas Frederik</t>
+  </si>
+  <si>
     <t>KZS</t>
   </si>
   <si>
-    <t>Heyda</t>
-  </si>
-  <si>
-    <t>Nadine</t>
-  </si>
-  <si>
-    <t>Hoffmann</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>WEN</t>
-  </si>
-  <si>
-    <t>Madita</t>
-  </si>
-  <si>
-    <t>S8</t>
-  </si>
-  <si>
-    <t>HAR</t>
-  </si>
-  <si>
-    <t>Huck</t>
-  </si>
-  <si>
-    <t>Alexander-Friedrich</t>
-  </si>
-  <si>
-    <t>Hölterhoff</t>
-  </si>
-  <si>
-    <t>Ipta</t>
-  </si>
-  <si>
-    <t>Sophie</t>
-  </si>
-  <si>
-    <t>Jansen</t>
-  </si>
-  <si>
-    <t>Lukas</t>
-  </si>
-  <si>
-    <t>Kaspers</t>
-  </si>
-  <si>
-    <t>Ann-Kathrin</t>
-  </si>
-  <si>
-    <t>Kawohl</t>
-  </si>
-  <si>
-    <t>Svenja Madlen</t>
-  </si>
-  <si>
-    <t>Kirsch</t>
-  </si>
-  <si>
-    <t>Ricarda</t>
-  </si>
-  <si>
-    <t>Klauer</t>
-  </si>
-  <si>
-    <t>Anna Nicolina</t>
-  </si>
-  <si>
-    <t>Kleemann-Kleinpoppen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cedric </t>
-  </si>
-  <si>
-    <t>Kleischmann</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>Klug</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Kluth</t>
-  </si>
-  <si>
-    <t>Jana Magdalena</t>
-  </si>
-  <si>
-    <t>KU</t>
-  </si>
-  <si>
-    <t>Knebelkamp</t>
-  </si>
-  <si>
-    <t>Chiara Augusta</t>
-  </si>
-  <si>
-    <t>Knepper</t>
-  </si>
-  <si>
-    <t>Matthias</t>
-  </si>
-  <si>
-    <t>LÜR</t>
-  </si>
-  <si>
-    <t>Knoblich</t>
-  </si>
-  <si>
-    <t>Jul Noah</t>
-  </si>
-  <si>
-    <t>REU</t>
-  </si>
-  <si>
-    <t>Koch</t>
-  </si>
-  <si>
-    <t>Marius</t>
-  </si>
-  <si>
-    <t>RÖM</t>
-  </si>
-  <si>
-    <t>Kolb</t>
-  </si>
-  <si>
-    <t>Kratsch</t>
-  </si>
-  <si>
-    <t>Krebs</t>
-  </si>
-  <si>
-    <t>Niklas Frederik</t>
-  </si>
-  <si>
     <t>Kriegesmann</t>
   </si>
   <si>
     <t>Lotta</t>
   </si>
   <si>
-    <t>PL</t>
-  </si>
-  <si>
     <t>Kröhnke</t>
   </si>
   <si>
@@ -632,453 +638,450 @@
     <t>Pöller</t>
   </si>
   <si>
+    <t>Rauch</t>
+  </si>
+  <si>
+    <t>Vanessa</t>
+  </si>
+  <si>
+    <t>Rohrschneider</t>
+  </si>
+  <si>
+    <t>Salchenegger</t>
+  </si>
+  <si>
+    <t>Salomon</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>Scheer</t>
+  </si>
+  <si>
+    <t>Moritz</t>
+  </si>
+  <si>
+    <t>Schiffmann</t>
+  </si>
+  <si>
+    <t>Romy</t>
+  </si>
+  <si>
+    <t>Schippel</t>
+  </si>
+  <si>
+    <t>Johanna Ida</t>
+  </si>
+  <si>
+    <t>Schumann</t>
+  </si>
+  <si>
+    <t>Schumbrink</t>
+  </si>
+  <si>
+    <t>Fabian</t>
+  </si>
+  <si>
+    <t>Schüth</t>
+  </si>
+  <si>
+    <t>Judith</t>
+  </si>
+  <si>
+    <t>Skrzyppek</t>
+  </si>
+  <si>
+    <t>Sritharan</t>
+  </si>
+  <si>
+    <t>Niroojan</t>
+  </si>
+  <si>
+    <t>Staudinger</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Struss</t>
+  </si>
+  <si>
+    <t>Paulina</t>
+  </si>
+  <si>
+    <t>Strübing</t>
+  </si>
+  <si>
+    <t>Jakob</t>
+  </si>
+  <si>
+    <t>Tenter</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Terzioglu</t>
+  </si>
+  <si>
+    <t>Ferihan Cemre</t>
+  </si>
+  <si>
+    <t>Thiele</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>Unterhuber</t>
+  </si>
+  <si>
+    <t>Lena Sophie</t>
+  </si>
+  <si>
+    <t>Viehweger</t>
+  </si>
+  <si>
+    <t>Rica</t>
+  </si>
+  <si>
+    <t>Vincenz</t>
+  </si>
+  <si>
+    <t>Alicia Josephine</t>
+  </si>
+  <si>
+    <t>Voigt</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>von Hülsen</t>
+  </si>
+  <si>
+    <t>Henrike</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>Weck</t>
+  </si>
+  <si>
+    <t>Ann-Sophie</t>
+  </si>
+  <si>
+    <t>Weiher</t>
+  </si>
+  <si>
+    <t>Lea</t>
+  </si>
+  <si>
+    <t>Weischede</t>
+  </si>
+  <si>
+    <t>Marieluis</t>
+  </si>
+  <si>
+    <t>Wohlfahrt</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>Wygocki</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Wülfing</t>
+  </si>
+  <si>
+    <t>Jan Luca</t>
+  </si>
+  <si>
+    <t>Zickel</t>
+  </si>
+  <si>
+    <t>Anzahl Schüler</t>
+  </si>
+  <si>
+    <t>Schüler</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Daniel Salomon</t>
+  </si>
+  <si>
+    <t>SUT</t>
+  </si>
+  <si>
+    <t>Lara Olkner</t>
+  </si>
+  <si>
+    <t>Kim Tenter</t>
+  </si>
+  <si>
+    <t>Paul Kolb</t>
+  </si>
+  <si>
+    <t>Vanessa Rauch</t>
+  </si>
+  <si>
+    <t>Daniel Salchenegger</t>
+  </si>
+  <si>
+    <t>Jana Magdalena Kluth</t>
+  </si>
+  <si>
+    <t>Paul Klug</t>
+  </si>
+  <si>
+    <t>Marius Koch</t>
+  </si>
+  <si>
+    <t>Paul Kratsch</t>
+  </si>
+  <si>
+    <t>Anna Nicolina Klauer</t>
+  </si>
+  <si>
+    <t>Laura Polzin</t>
+  </si>
+  <si>
+    <t>Rebecca Thiele</t>
+  </si>
+  <si>
+    <t>Lukas Jansen</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>REV</t>
+  </si>
+  <si>
+    <t>Madita Hoffmann</t>
+  </si>
+  <si>
     <t>M LK</t>
   </si>
   <si>
     <t>SCHM</t>
   </si>
   <si>
-    <t>Rauch</t>
-  </si>
-  <si>
-    <t>Vanessa</t>
-  </si>
-  <si>
-    <t>Rohrschneider</t>
-  </si>
-  <si>
-    <t>Salchenegger</t>
-  </si>
-  <si>
-    <t>Salomon</t>
-  </si>
-  <si>
-    <t>IF</t>
-  </si>
-  <si>
-    <t>Scheer</t>
-  </si>
-  <si>
-    <t>Moritz</t>
-  </si>
-  <si>
-    <t>Schiffmann</t>
-  </si>
-  <si>
-    <t>Romy</t>
-  </si>
-  <si>
-    <t>Schippel</t>
-  </si>
-  <si>
-    <t>Johanna Ida</t>
-  </si>
-  <si>
-    <t>MÖ</t>
-  </si>
-  <si>
-    <t>Schumann</t>
-  </si>
-  <si>
-    <t>Schumbrink</t>
-  </si>
-  <si>
-    <t>Fabian</t>
-  </si>
-  <si>
-    <t>Schüth</t>
-  </si>
-  <si>
-    <t>Judith</t>
-  </si>
-  <si>
-    <t>Skrzyppek</t>
-  </si>
-  <si>
-    <t>Sritharan</t>
-  </si>
-  <si>
-    <t>Niroojan</t>
-  </si>
-  <si>
-    <t>Staudinger</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>Struss</t>
-  </si>
-  <si>
-    <t>Paulina</t>
-  </si>
-  <si>
-    <t>Strübing</t>
-  </si>
-  <si>
-    <t>Jakob</t>
-  </si>
-  <si>
-    <t>Tenter</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>Terzioglu</t>
-  </si>
-  <si>
-    <t>Ferihan Cemre</t>
-  </si>
-  <si>
-    <t>Thiele</t>
-  </si>
-  <si>
-    <t>Rebecca</t>
-  </si>
-  <si>
-    <t>Unterhuber</t>
-  </si>
-  <si>
-    <t>Lena Sophie</t>
-  </si>
-  <si>
-    <t>Viehweger</t>
-  </si>
-  <si>
-    <t>Rica</t>
-  </si>
-  <si>
-    <t>Vincenz</t>
-  </si>
-  <si>
-    <t>Alicia Josephine</t>
-  </si>
-  <si>
-    <t>Voigt</t>
-  </si>
-  <si>
-    <t>Julian</t>
-  </si>
-  <si>
-    <t>von Hülsen</t>
-  </si>
-  <si>
-    <t>Henrike</t>
-  </si>
-  <si>
-    <t>Walter</t>
-  </si>
-  <si>
-    <t>Weck</t>
-  </si>
-  <si>
-    <t>Ann-Sophie</t>
-  </si>
-  <si>
-    <t>Weiher</t>
-  </si>
-  <si>
-    <t>Lea</t>
-  </si>
-  <si>
-    <t>Weischede</t>
-  </si>
-  <si>
-    <t>Marieluis</t>
-  </si>
-  <si>
-    <t>Wohlfahrt</t>
-  </si>
-  <si>
-    <t>Stefan</t>
-  </si>
-  <si>
-    <t>Wygocki</t>
-  </si>
-  <si>
-    <t>Patricia</t>
-  </si>
-  <si>
-    <t>Wülfing</t>
-  </si>
-  <si>
-    <t>Jan Luca</t>
-  </si>
-  <si>
-    <t>Zickel</t>
-  </si>
-  <si>
-    <t>Anzahl Schüler</t>
-  </si>
-  <si>
-    <t>Schüler</t>
-  </si>
-  <si>
-    <t>ER</t>
-  </si>
-  <si>
-    <t>MAT</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Daniel Salomon</t>
-  </si>
-  <si>
-    <t>SUT</t>
-  </si>
-  <si>
-    <t>Lara Olkner</t>
-  </si>
-  <si>
-    <t>Kim Tenter</t>
-  </si>
-  <si>
-    <t>Paul Kolb</t>
+    <t>Niklas Frederik Krebs</t>
+  </si>
+  <si>
+    <t>Jonas Pöller</t>
+  </si>
+  <si>
+    <t>Niroojan Sritharan</t>
+  </si>
+  <si>
+    <t>Felix Maar</t>
+  </si>
+  <si>
+    <t>Jakob Strübing</t>
+  </si>
+  <si>
+    <t>Nele Kristin Hansen</t>
+  </si>
+  <si>
+    <t>Chiara Augusta Knebelkamp</t>
+  </si>
+  <si>
+    <t>Judith Schüth</t>
+  </si>
+  <si>
+    <t>Philipp Göbelsmann</t>
+  </si>
+  <si>
+    <t>Anes Mujovic</t>
+  </si>
+  <si>
+    <t>Jan Luca Wülfing</t>
+  </si>
+  <si>
+    <t>Florian Gilbrich</t>
+  </si>
+  <si>
+    <t>Jonas Gerkens</t>
+  </si>
+  <si>
+    <t>Rica Viehweger</t>
+  </si>
+  <si>
+    <t>Lisa Kleischmann</t>
+  </si>
+  <si>
+    <t>Jul Noah Knoblich</t>
+  </si>
+  <si>
+    <t>Yvonne Li</t>
+  </si>
+  <si>
+    <t>Tom Buse</t>
+  </si>
+  <si>
+    <t>Johanna Ida Schippel</t>
+  </si>
+  <si>
+    <t>Cedric  Kleemann-Kleinpoppen</t>
+  </si>
+  <si>
+    <t>Emily Matthes</t>
+  </si>
+  <si>
+    <t>Julian Voigt</t>
+  </si>
+  <si>
+    <t>Daniel Hess</t>
+  </si>
+  <si>
+    <t>Katharina Hölterhoff</t>
+  </si>
+  <si>
+    <t>Nina Kröhnke</t>
+  </si>
+  <si>
+    <t>Jan Damrow</t>
+  </si>
+  <si>
+    <t>Kathrin Daun</t>
+  </si>
+  <si>
+    <t>Philipp Dominique Perpeet</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>GRZ</t>
+  </si>
+  <si>
+    <t>VTR</t>
+  </si>
+  <si>
+    <t>Juliane Bienert</t>
+  </si>
+  <si>
+    <t>Indra Breitenbruch</t>
+  </si>
+  <si>
+    <t>Daniel Götze</t>
+  </si>
+  <si>
+    <t>Lara Benkner</t>
+  </si>
+  <si>
+    <t>Carolin Hoffmann</t>
+  </si>
+  <si>
+    <t>Verena Oppenberg</t>
+  </si>
+  <si>
+    <t>Caroline Leicht</t>
+  </si>
+  <si>
+    <t>Lisa Netzler</t>
+  </si>
+  <si>
+    <t>Marieluis Weischede</t>
+  </si>
+  <si>
+    <t>Ben Aaron Becht</t>
+  </si>
+  <si>
+    <t>Malte Hellwig</t>
+  </si>
+  <si>
+    <t>Sophie Ipta</t>
+  </si>
+  <si>
+    <t>Alissa Bazzoli</t>
+  </si>
+  <si>
+    <t>Romy Schumann</t>
+  </si>
+  <si>
+    <t>Julia Zickel</t>
+  </si>
+  <si>
+    <t>Diana Gurinovich</t>
+  </si>
+  <si>
+    <t>Svenja Madlen Kawohl</t>
   </si>
   <si>
     <t>Matthias Knepper</t>
   </si>
   <si>
-    <t>Daniel Salchenegger</t>
-  </si>
-  <si>
-    <t>Jana Magdalena Kluth</t>
-  </si>
-  <si>
-    <t>LÜ</t>
-  </si>
-  <si>
-    <t>Marius Koch</t>
-  </si>
-  <si>
-    <t>Paul Kratsch</t>
+    <t>Carolin Bautista</t>
+  </si>
+  <si>
+    <t>Irina Melchior</t>
+  </si>
+  <si>
+    <t>Alicia Josephine Vincenz</t>
+  </si>
+  <si>
+    <t>Saskia Fischer</t>
+  </si>
+  <si>
+    <t>Patricia Wygocki</t>
+  </si>
+  <si>
+    <t>Lennard Ewertz</t>
+  </si>
+  <si>
+    <t>Fabian Schumbrink</t>
+  </si>
+  <si>
+    <t>Alina-Katharina aus der Wieschen</t>
+  </si>
+  <si>
+    <t>Christoph Daniel Biesek</t>
+  </si>
+  <si>
+    <t>Katharina Goray</t>
   </si>
   <si>
     <t>Lotta Kriegesmann</t>
   </si>
   <si>
-    <t>Laura Polzin</t>
-  </si>
-  <si>
-    <t>Rebecca Thiele</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>REV</t>
-  </si>
-  <si>
-    <t>Madita Hoffmann</t>
-  </si>
-  <si>
-    <t>Jonas Pöller</t>
-  </si>
-  <si>
-    <t>Daniel Hess</t>
-  </si>
-  <si>
-    <t>Niklas Frederik Krebs</t>
-  </si>
-  <si>
-    <t>Niroojan Sritharan</t>
-  </si>
-  <si>
-    <t>Felix Maar</t>
-  </si>
-  <si>
-    <t>Jakob Strübing</t>
-  </si>
-  <si>
-    <t>Nele Kristin Hansen</t>
-  </si>
-  <si>
-    <t>Katharina Goray</t>
-  </si>
-  <si>
-    <t>Chiara Augusta Knebelkamp</t>
-  </si>
-  <si>
-    <t>Judith Schüth</t>
-  </si>
-  <si>
-    <t>Philipp Göbelsmann</t>
-  </si>
-  <si>
-    <t>Anes Mujovic</t>
-  </si>
-  <si>
-    <t>Jan Luca Wülfing</t>
-  </si>
-  <si>
-    <t>Florian Gilbrich</t>
-  </si>
-  <si>
-    <t>Jonas Gerkens</t>
-  </si>
-  <si>
-    <t>Rica Viehweger</t>
-  </si>
-  <si>
-    <t>Lisa Kleischmann</t>
-  </si>
-  <si>
-    <t>Jul Noah Knoblich</t>
-  </si>
-  <si>
-    <t>Yvonne Li</t>
-  </si>
-  <si>
-    <t>Johanna Ida Schippel</t>
-  </si>
-  <si>
-    <t>Carolin Hoffmann</t>
-  </si>
-  <si>
-    <t>Cedric  Kleemann-Kleinpoppen</t>
-  </si>
-  <si>
-    <t>Emily Matthes</t>
-  </si>
-  <si>
-    <t>Katharina Hölterhoff</t>
-  </si>
-  <si>
-    <t>Sophie Ipta</t>
-  </si>
-  <si>
-    <t>Nina Kröhnke</t>
-  </si>
-  <si>
-    <t>Kathrin Daun</t>
-  </si>
-  <si>
-    <t>Philipp Dominique Perpeet</t>
-  </si>
-  <si>
-    <t>Julian Voigt</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>GRZ</t>
-  </si>
-  <si>
-    <t>VTR</t>
-  </si>
-  <si>
-    <t>Juliane Bienert</t>
-  </si>
-  <si>
-    <t>Indra Breitenbruch</t>
-  </si>
-  <si>
-    <t>Daniel Götze</t>
-  </si>
-  <si>
-    <t>Lara Benkner</t>
-  </si>
-  <si>
-    <t>Paul Klug</t>
-  </si>
-  <si>
-    <t>Verena Oppenberg</t>
-  </si>
-  <si>
-    <t>Tom Buse</t>
-  </si>
-  <si>
-    <t>Caroline Leicht</t>
-  </si>
-  <si>
-    <t>Marieluis Weischede</t>
-  </si>
-  <si>
-    <t>Ben Aaron Becht</t>
-  </si>
-  <si>
-    <t>Malte Hellwig</t>
+    <t>Laura Apeltrath</t>
+  </si>
+  <si>
+    <t>Leonie Flüs</t>
+  </si>
+  <si>
+    <t>Angelina Gallidabino</t>
+  </si>
+  <si>
+    <t>MEI</t>
+  </si>
+  <si>
+    <t>Michelle Margarete Engels</t>
+  </si>
+  <si>
+    <t>Lorena Ere</t>
   </si>
   <si>
     <t>Alexander-Friedrich Huck</t>
   </si>
   <si>
-    <t>Alissa Bazzoli</t>
-  </si>
-  <si>
-    <t>Romy Schumann</t>
-  </si>
-  <si>
-    <t>Julia Zickel</t>
-  </si>
-  <si>
-    <t>Diana Gurinovich</t>
-  </si>
-  <si>
-    <t>Lukas Jansen</t>
-  </si>
-  <si>
-    <t>Anna Nicolina Klauer</t>
-  </si>
-  <si>
-    <t>Leonie Flüs</t>
-  </si>
-  <si>
-    <t>Irina Melchior</t>
-  </si>
-  <si>
-    <t>Vanessa Rauch</t>
-  </si>
-  <si>
-    <t>Saskia Fischer</t>
-  </si>
-  <si>
-    <t>Patricia Wygocki</t>
-  </si>
-  <si>
-    <t>Lennard Ewertz</t>
-  </si>
-  <si>
-    <t>Fabian Schumbrink</t>
-  </si>
-  <si>
-    <t>Alina-Katharina aus der Wieschen</t>
-  </si>
-  <si>
-    <t>Christoph Daniel Biesek</t>
-  </si>
-  <si>
-    <t>Jan Damrow</t>
-  </si>
-  <si>
-    <t>Svenja Madlen Kawohl</t>
-  </si>
-  <si>
-    <t>Laura Apeltrath</t>
-  </si>
-  <si>
-    <t>Lorena Ere</t>
-  </si>
-  <si>
-    <t>Lisa Netzler</t>
-  </si>
-  <si>
-    <t>MEI</t>
-  </si>
-  <si>
-    <t>Carolin Bautista</t>
-  </si>
-  <si>
-    <t>Angelina Gallidabino</t>
-  </si>
-  <si>
-    <t>Alicia Josephine Vincenz</t>
-  </si>
-  <si>
     <t>Marius Adrian Albrecht</t>
   </si>
   <si>
@@ -1097,7 +1100,7 @@
     <t xml:space="preserve">Calculation Rate: </t>
   </si>
   <si>
-    <t>270</t>
+    <t>328</t>
   </si>
   <si>
     <t>Priority</t>
@@ -1106,10 +1109,10 @@
     <t>Count of Students with Priority</t>
   </si>
   <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>16</t>
+    <t>60</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>No unallocated Students</t>
@@ -1121,10 +1124,10 @@
     <t>First Choice</t>
   </si>
   <si>
-    <t>EW|SAL</t>
-  </si>
-  <si>
-    <t>PH|KZS</t>
+    <t>EW|POS</t>
+  </si>
+  <si>
+    <t>EK|BRO</t>
   </si>
 </sst>
 </file>
@@ -2444,21 +2447,21 @@
         <v>25</v>
       </c>
       <c r="E7" t="s" s="7">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s" s="8">
         <v>10</v>
@@ -2466,16 +2469,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s" s="9">
         <v>10</v>
@@ -2483,10 +2486,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s" s="10">
         <v>17</v>
@@ -2500,13 +2503,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s" s="11">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s" s="11">
         <v>39</v>
@@ -2591,21 +2594,21 @@
         <v>53</v>
       </c>
       <c r="C16" t="s" s="16">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s" s="16">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s" s="16">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="17">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s" s="17">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s" s="17">
         <v>17</v>
@@ -2619,30 +2622,30 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="18">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s" s="18">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s" s="18">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s" s="18">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s" s="18">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="19">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="19">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s" s="19">
         <v>59</v>
-      </c>
-      <c r="C19" t="s" s="19">
-        <v>24</v>
       </c>
       <c r="D19" t="s" s="19">
         <v>60</v>
@@ -2653,10 +2656,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="20">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s" s="20">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s" s="20">
         <v>17</v>
@@ -2670,50 +2673,50 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="21">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="21">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s" s="21">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s" s="21">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s" s="21">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="22">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s" s="22">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s" s="22">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s" s="22">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s" s="22">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="23">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s" s="23">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s" s="23">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s" s="23">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s" s="23">
         <v>10</v>
@@ -2721,61 +2724,61 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="24">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s" s="24">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s" s="24">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s" s="24">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="25">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s" s="25">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s" s="25">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s" s="25">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s" s="25">
-        <v>74</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="26">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s" s="26">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s" s="26">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s" s="26">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s" s="26">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="27">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s" s="27">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s" s="27">
         <v>8</v>
@@ -2784,15 +2787,15 @@
         <v>9</v>
       </c>
       <c r="E27" t="s" s="27">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="28">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s" s="28">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s" s="28">
         <v>17</v>
@@ -2806,33 +2809,33 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="29">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s" s="29">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s" s="29">
         <v>42</v>
       </c>
       <c r="D29" t="s" s="29">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E29" t="s" s="29">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="30">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s" s="30">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s" s="30">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s" s="30">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s" s="30">
         <v>10</v>
@@ -2840,27 +2843,27 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="31">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s" s="31">
         <v>49</v>
       </c>
       <c r="C31" t="s" s="31">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s" s="31">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s" s="31">
-        <v>94</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="32">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s" s="32">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s" s="32">
         <v>17</v>
@@ -2874,16 +2877,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="33">
+        <v>95</v>
+      </c>
+      <c r="B33" t="s" s="33">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s" s="33">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s" s="33">
         <v>97</v>
-      </c>
-      <c r="B33" t="s" s="33">
-        <v>98</v>
-      </c>
-      <c r="C33" t="s" s="33">
-        <v>32</v>
-      </c>
-      <c r="D33" t="s" s="33">
-        <v>99</v>
       </c>
       <c r="E33" t="s" s="33">
         <v>10</v>
@@ -2891,16 +2894,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="34">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s" s="34">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s" s="34">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s" s="34">
         <v>100</v>
-      </c>
-      <c r="B34" t="s" s="34">
-        <v>101</v>
-      </c>
-      <c r="C34" t="s" s="34">
-        <v>32</v>
-      </c>
-      <c r="D34" t="s" s="34">
-        <v>102</v>
       </c>
       <c r="E34" t="s" s="34">
         <v>10</v>
@@ -2908,10 +2911,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="35">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s" s="35">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s" s="35">
         <v>42</v>
@@ -2925,10 +2928,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="36">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s" s="36">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s" s="36">
         <v>17</v>
@@ -2942,44 +2945,44 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="37">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s" s="37">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s" s="37">
         <v>107</v>
       </c>
-      <c r="B37" t="s" s="37">
-        <v>108</v>
-      </c>
-      <c r="C37" t="s" s="37">
-        <v>109</v>
-      </c>
       <c r="D37" t="s" s="37">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E37" t="s" s="37">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="38">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s" s="38">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s" s="38">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s" s="38">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E38" t="s" s="38">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="39">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s" s="39">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s" s="39">
         <v>17</v>
@@ -2993,27 +2996,27 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="40">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B40" t="s" s="40">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s" s="40">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s" s="40">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s" s="40">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="41">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B41" t="s" s="41">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s" s="41">
         <v>17</v>
@@ -3027,33 +3030,33 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="42">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B42" t="s" s="42">
         <v>23</v>
       </c>
       <c r="C42" t="s" s="42">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s" s="42">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="E42" t="s" s="42">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="43">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s" s="43">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s" s="43">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s" s="43">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E43" t="s" s="43">
         <v>10</v>
@@ -3061,24 +3064,24 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="44">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B44" t="s" s="44">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s" s="44">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D44" t="s" s="44">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E44" t="s" s="44">
-        <v>74</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="45">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s" s="45">
         <v>49</v>
@@ -3087,7 +3090,7 @@
         <v>13</v>
       </c>
       <c r="D45" t="s" s="45">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E45" t="s" s="45">
         <v>10</v>
@@ -3095,44 +3098,44 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="46">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B46" t="s" s="46">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C46" t="s" s="46">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="D46" t="s" s="46">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E46" t="s" s="46">
-        <v>10</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="47">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B47" t="s" s="47">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s" s="47">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D47" t="s" s="47">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="E47" t="s" s="47">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="48">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B48" t="s" s="48">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s" s="48">
         <v>17</v>
@@ -3146,27 +3149,27 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="49">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B49" t="s" s="49">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s" s="49">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D49" t="s" s="49">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="E49" t="s" s="49">
-        <v>74</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="50">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B50" t="s" s="50">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C50" t="s" s="50">
         <v>17</v>
@@ -3180,33 +3183,33 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="51">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B51" t="s" s="51">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s" s="51">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="D51" t="s" s="51">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="E51" t="s" s="51">
-        <v>10</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="52">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B52" t="s" s="52">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C52" t="s" s="52">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D52" t="s" s="52">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="E52" t="s" s="52">
         <v>10</v>
@@ -3214,47 +3217,47 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="53">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B53" t="s" s="53">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C53" t="s" s="53">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D53" t="s" s="53">
         <v>43</v>
       </c>
       <c r="E53" t="s" s="53">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="54">
+        <v>142</v>
+      </c>
+      <c r="B54" t="s" s="54">
+        <v>143</v>
+      </c>
+      <c r="C54" t="s" s="54">
+        <v>20</v>
+      </c>
+      <c r="D54" t="s" s="54">
         <v>144</v>
       </c>
-      <c r="B54" t="s" s="54">
-        <v>145</v>
-      </c>
-      <c r="C54" t="s" s="54">
-        <v>38</v>
-      </c>
-      <c r="D54" t="s" s="54">
-        <v>39</v>
-      </c>
       <c r="E54" t="s" s="54">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="55">
+        <v>145</v>
+      </c>
+      <c r="B55" t="s" s="55">
         <v>146</v>
       </c>
-      <c r="B55" t="s" s="55">
+      <c r="C55" t="s" s="55">
         <v>147</v>
-      </c>
-      <c r="C55" t="s" s="55">
-        <v>148</v>
       </c>
       <c r="D55" t="s" s="55">
         <v>21</v>
@@ -3265,16 +3268,16 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="56">
+        <v>148</v>
+      </c>
+      <c r="B56" t="s" s="56">
         <v>149</v>
       </c>
-      <c r="B56" t="s" s="56">
+      <c r="C56" t="s" s="56">
         <v>150</v>
       </c>
-      <c r="C56" t="s" s="56">
-        <v>92</v>
-      </c>
       <c r="D56" t="s" s="56">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="E56" t="s" s="56">
         <v>10</v>
@@ -3282,19 +3285,19 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="57">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B57" t="s" s="57">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C57" t="s" s="57">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D57" t="s" s="57">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="E57" t="s" s="57">
-        <v>74</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -3322,27 +3325,27 @@
         <v>158</v>
       </c>
       <c r="C59" t="s" s="59">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="D59" t="s" s="59">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E59" t="s" s="59">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="60">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B60" t="s" s="60">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C60" t="s" s="60">
         <v>42</v>
       </c>
       <c r="D60" t="s" s="60">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E60" t="s" s="60">
         <v>10</v>
@@ -3350,16 +3353,16 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="61">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B61" t="s" s="61">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C61" t="s" s="61">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="D61" t="s" s="61">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E61" t="s" s="61">
         <v>10</v>
@@ -3367,16 +3370,16 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="62">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B62" t="s" s="62">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C62" t="s" s="62">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="D62" t="s" s="62">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="E62" t="s" s="62">
         <v>10</v>
@@ -3384,33 +3387,33 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="63">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B63" t="s" s="63">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C63" t="s" s="63">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="D63" t="s" s="63">
         <v>47</v>
       </c>
       <c r="E63" t="s" s="63">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="64">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B64" t="s" s="64">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C64" t="s" s="64">
         <v>13</v>
       </c>
       <c r="D64" t="s" s="64">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E64" t="s" s="64">
         <v>10</v>
@@ -3418,13 +3421,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="65">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B65" t="s" s="65">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C65" t="s" s="65">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D65" t="s" s="65">
         <v>47</v>
@@ -3435,10 +3438,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="66">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B66" t="s" s="66">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C66" t="s" s="66">
         <v>20</v>
@@ -3452,10 +3455,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="67">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B67" t="s" s="67">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C67" t="s" s="67">
         <v>17</v>
@@ -3469,16 +3472,16 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="68">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B68" t="s" s="68">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C68" t="s" s="68">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s" s="68">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E68" t="s" s="68">
         <v>10</v>
@@ -3486,10 +3489,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="69">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B69" t="s" s="69">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C69" t="s" s="69">
         <v>17</v>
@@ -3503,16 +3506,16 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="70">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B70" t="s" s="70">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C70" t="s" s="70">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D70" t="s" s="70">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="E70" t="s" s="70">
         <v>10</v>
@@ -3520,16 +3523,16 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="71">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B71" t="s" s="71">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C71" t="s" s="71">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D71" t="s" s="71">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="E71" t="s" s="71">
         <v>10</v>
@@ -3537,10 +3540,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="72">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B72" t="s" s="72">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C72" t="s" s="72">
         <v>17</v>
@@ -3554,10 +3557,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="73">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B73" t="s" s="73">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C73" t="s" s="73">
         <v>17</v>
@@ -3571,16 +3574,16 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="74">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B74" t="s" s="74">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C74" t="s" s="74">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D74" t="s" s="74">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E74" t="s" s="74">
         <v>10</v>
@@ -3588,27 +3591,27 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="75">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B75" t="s" s="75">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C75" t="s" s="75">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D75" t="s" s="75">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="E75" t="s" s="75">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="76">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B76" t="s" s="76">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C76" t="s" s="76">
         <v>17</v>
@@ -3622,44 +3625,44 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="77">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B77" t="s" s="77">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C77" t="s" s="77">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D77" t="s" s="77">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E77" t="s" s="77">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="78">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B78" t="s" s="78">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C78" t="s" s="78">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D78" t="s" s="78">
         <v>39</v>
       </c>
       <c r="E78" t="s" s="78">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="79">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B79" t="s" s="79">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C79" t="s" s="79">
         <v>17</v>
@@ -3673,10 +3676,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="80">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B80" t="s" s="80">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C80" t="s" s="80">
         <v>17</v>
@@ -3690,27 +3693,27 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="81">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B81" t="s" s="81">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C81" t="s" s="81">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D81" t="s" s="81">
         <v>60</v>
       </c>
       <c r="E81" t="s" s="81">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="82">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B82" t="s" s="82">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C82" t="s" s="82">
         <v>17</v>
@@ -3724,36 +3727,36 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="83">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B83" t="s" s="83">
         <v>12</v>
       </c>
       <c r="C83" t="s" s="83">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="D83" t="s" s="83">
         <v>47</v>
       </c>
       <c r="E83" t="s" s="83">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="84">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B84" t="s" s="84">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C84" t="s" s="84">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="D84" t="s" s="84">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="E84" t="s" s="84">
-        <v>94</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -3764,13 +3767,13 @@
         <v>208</v>
       </c>
       <c r="C85" t="s" s="85">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D85" t="s" s="85">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="E85" t="s" s="85">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
@@ -3778,7 +3781,7 @@
         <v>209</v>
       </c>
       <c r="B86" t="s" s="86">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C86" t="s" s="86">
         <v>17</v>
@@ -3795,13 +3798,13 @@
         <v>210</v>
       </c>
       <c r="B87" t="s" s="87">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C87" t="s" s="87">
         <v>20</v>
       </c>
       <c r="D87" t="s" s="87">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E87" t="s" s="87">
         <v>10</v>
@@ -3812,13 +3815,13 @@
         <v>211</v>
       </c>
       <c r="B88" t="s" s="88">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C88" t="s" s="88">
         <v>212</v>
       </c>
       <c r="D88" t="s" s="88">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E88" t="s" s="88">
         <v>10</v>
@@ -3869,7 +3872,7 @@
         <v>42</v>
       </c>
       <c r="D91" t="s" s="91">
-        <v>219</v>
+        <v>54</v>
       </c>
       <c r="E91" t="s" s="91">
         <v>10</v>
@@ -3877,16 +3880,16 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="92">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B92" t="s" s="92">
         <v>216</v>
       </c>
       <c r="C92" t="s" s="92">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D92" t="s" s="92">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E92" t="s" s="92">
         <v>10</v>
@@ -3894,33 +3897,33 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="93">
+        <v>220</v>
+      </c>
+      <c r="B93" t="s" s="93">
         <v>221</v>
       </c>
-      <c r="B93" t="s" s="93">
-        <v>222</v>
-      </c>
       <c r="C93" t="s" s="93">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D93" t="s" s="93">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E93" t="s" s="93">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="94">
+        <v>222</v>
+      </c>
+      <c r="B94" t="s" s="94">
         <v>223</v>
       </c>
-      <c r="B94" t="s" s="94">
-        <v>224</v>
-      </c>
       <c r="C94" t="s" s="94">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="D94" t="s" s="94">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="E94" t="s" s="94">
         <v>10</v>
@@ -3928,10 +3931,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="95">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B95" t="s" s="95">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C95" t="s" s="95">
         <v>17</v>
@@ -3945,16 +3948,16 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="96">
+        <v>225</v>
+      </c>
+      <c r="B96" t="s" s="96">
         <v>226</v>
       </c>
-      <c r="B96" t="s" s="96">
-        <v>227</v>
-      </c>
       <c r="C96" t="s" s="96">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="D96" t="s" s="96">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="E96" t="s" s="96">
         <v>10</v>
@@ -3962,10 +3965,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="97">
+        <v>227</v>
+      </c>
+      <c r="B97" t="s" s="97">
         <v>228</v>
-      </c>
-      <c r="B97" t="s" s="97">
-        <v>229</v>
       </c>
       <c r="C97" t="s" s="97">
         <v>17</v>
@@ -3979,10 +3982,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="98">
+        <v>229</v>
+      </c>
+      <c r="B98" t="s" s="98">
         <v>230</v>
-      </c>
-      <c r="B98" t="s" s="98">
-        <v>231</v>
       </c>
       <c r="C98" t="s" s="98">
         <v>17</v>
@@ -3996,16 +3999,16 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="99">
+        <v>231</v>
+      </c>
+      <c r="B99" t="s" s="99">
         <v>232</v>
       </c>
-      <c r="B99" t="s" s="99">
-        <v>233</v>
-      </c>
       <c r="C99" t="s" s="99">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="D99" t="s" s="99">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E99" t="s" s="99">
         <v>10</v>
@@ -4013,16 +4016,16 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="100">
+        <v>233</v>
+      </c>
+      <c r="B100" t="s" s="100">
         <v>234</v>
       </c>
-      <c r="B100" t="s" s="100">
-        <v>235</v>
-      </c>
       <c r="C100" t="s" s="100">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D100" t="s" s="100">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E100" t="s" s="100">
         <v>10</v>
@@ -4030,10 +4033,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="101">
+        <v>235</v>
+      </c>
+      <c r="B101" t="s" s="101">
         <v>236</v>
-      </c>
-      <c r="B101" t="s" s="101">
-        <v>237</v>
       </c>
       <c r="C101" t="s" s="101">
         <v>17</v>
@@ -4047,13 +4050,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="102">
+        <v>237</v>
+      </c>
+      <c r="B102" t="s" s="102">
         <v>238</v>
       </c>
-      <c r="B102" t="s" s="102">
-        <v>239</v>
-      </c>
       <c r="C102" t="s" s="102">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="D102" t="s" s="102">
         <v>47</v>
@@ -4064,10 +4067,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="103">
+        <v>239</v>
+      </c>
+      <c r="B103" t="s" s="103">
         <v>240</v>
-      </c>
-      <c r="B103" t="s" s="103">
-        <v>241</v>
       </c>
       <c r="C103" t="s" s="103">
         <v>17</v>
@@ -4081,16 +4084,16 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="104">
+        <v>241</v>
+      </c>
+      <c r="B104" t="s" s="104">
         <v>242</v>
-      </c>
-      <c r="B104" t="s" s="104">
-        <v>243</v>
       </c>
       <c r="C104" t="s" s="104">
         <v>42</v>
       </c>
       <c r="D104" t="s" s="104">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E104" t="s" s="104">
         <v>10</v>
@@ -4098,10 +4101,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="105">
+        <v>243</v>
+      </c>
+      <c r="B105" t="s" s="105">
         <v>244</v>
-      </c>
-      <c r="B105" t="s" s="105">
-        <v>245</v>
       </c>
       <c r="C105" t="s" s="105">
         <v>24</v>
@@ -4110,32 +4113,32 @@
         <v>25</v>
       </c>
       <c r="E105" t="s" s="105">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="106">
+        <v>245</v>
+      </c>
+      <c r="B106" t="s" s="106">
         <v>246</v>
       </c>
-      <c r="B106" t="s" s="106">
-        <v>247</v>
-      </c>
       <c r="C106" t="s" s="106">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="D106" t="s" s="106">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="E106" t="s" s="106">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="107">
+        <v>247</v>
+      </c>
+      <c r="B107" t="s" s="107">
         <v>248</v>
-      </c>
-      <c r="B107" t="s" s="107">
-        <v>249</v>
       </c>
       <c r="C107" t="s" s="107">
         <v>17</v>
@@ -4149,10 +4152,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="108">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B108" t="s" s="108">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C108" t="s" s="108">
         <v>17</v>
@@ -4166,10 +4169,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="109">
+        <v>250</v>
+      </c>
+      <c r="B109" t="s" s="109">
         <v>251</v>
-      </c>
-      <c r="B109" t="s" s="109">
-        <v>252</v>
       </c>
       <c r="C109" t="s" s="109">
         <v>17</v>
@@ -4183,10 +4186,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="110">
+        <v>252</v>
+      </c>
+      <c r="B110" t="s" s="110">
         <v>253</v>
-      </c>
-      <c r="B110" t="s" s="110">
-        <v>254</v>
       </c>
       <c r="C110" t="s" s="110">
         <v>17</v>
@@ -4200,13 +4203,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="111">
+        <v>254</v>
+      </c>
+      <c r="B111" t="s" s="111">
         <v>255</v>
       </c>
-      <c r="B111" t="s" s="111">
-        <v>256</v>
-      </c>
       <c r="C111" t="s" s="111">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D111" t="s" s="111">
         <v>47</v>
@@ -4217,10 +4220,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="112">
+        <v>256</v>
+      </c>
+      <c r="B112" t="s" s="112">
         <v>257</v>
-      </c>
-      <c r="B112" t="s" s="112">
-        <v>258</v>
       </c>
       <c r="C112" t="s" s="112">
         <v>17</v>
@@ -4234,16 +4237,16 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="113">
+        <v>258</v>
+      </c>
+      <c r="B113" t="s" s="113">
         <v>259</v>
       </c>
-      <c r="B113" t="s" s="113">
-        <v>260</v>
-      </c>
       <c r="C113" t="s" s="113">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D113" t="s" s="113">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E113" t="s" s="113">
         <v>10</v>
@@ -4251,16 +4254,16 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="114">
+        <v>260</v>
+      </c>
+      <c r="B114" t="s" s="114">
         <v>261</v>
       </c>
-      <c r="B114" t="s" s="114">
-        <v>262</v>
-      </c>
       <c r="C114" t="s" s="114">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D114" t="s" s="114">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E114" t="s" s="114">
         <v>10</v>
@@ -4268,16 +4271,16 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="115">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B115" t="s" s="115">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C115" t="s" s="115">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D115" t="s" s="115">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E115" t="s" s="115">
         <v>10</v>
@@ -4321,10 +4324,10 @@
         <v>4</v>
       </c>
       <c r="C1" t="s" s="117">
+        <v>263</v>
+      </c>
+      <c r="D1" t="s" s="117">
         <v>264</v>
-      </c>
-      <c r="D1" t="s" s="117">
-        <v>265</v>
       </c>
       <c r="E1" t="s" s="117">
         <v>0</v>
@@ -4355,13 +4358,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="119">
+        <v>265</v>
+      </c>
+      <c r="B3" t="s" s="119">
         <v>266</v>
       </c>
-      <c r="B3" t="s" s="119">
+      <c r="C3" t="s" s="119">
         <v>267</v>
-      </c>
-      <c r="C3" t="s" s="119">
-        <v>268</v>
       </c>
       <c r="D3" t="s" s="119">
         <v>0</v>
@@ -4378,13 +4381,13 @@
         <v>212</v>
       </c>
       <c r="B4" t="s" s="120">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s" s="120">
         <v>10</v>
       </c>
       <c r="D4" t="s" s="120">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E4" t="s" s="120">
         <v>0</v>
@@ -4395,13 +4398,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="121">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s" s="121">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C5" t="s" s="121">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D5" t="s" s="121">
         <v>0</v>
@@ -4415,19 +4418,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="122">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s" s="122">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s" s="122">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s" s="122">
+        <v>270</v>
+      </c>
+      <c r="E6" t="s" s="122">
         <v>271</v>
-      </c>
-      <c r="E6" t="s" s="122">
-        <v>272</v>
       </c>
       <c r="F6" t="s" s="122">
         <v>0</v>
@@ -4438,16 +4441,16 @@
         <v>42</v>
       </c>
       <c r="B7" t="s" s="123">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s" s="123">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s" s="123">
+        <v>272</v>
+      </c>
+      <c r="E7" t="s" s="123">
         <v>273</v>
-      </c>
-      <c r="E7" t="s" s="123">
-        <v>0</v>
       </c>
       <c r="F7" t="s" s="123">
         <v>0</v>
@@ -4458,16 +4461,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="s" s="124">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s" s="124">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s" s="124">
         <v>274</v>
       </c>
       <c r="E8" t="s" s="124">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s" s="124">
         <v>0</v>
@@ -4475,7 +4478,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="125">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s" s="125">
         <v>21</v>
@@ -4484,7 +4487,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s" s="125">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E9" t="s" s="125">
         <v>0</v>
@@ -4498,13 +4501,13 @@
         <v>20</v>
       </c>
       <c r="B10" t="s" s="126">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s" s="126">
-        <v>268</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s" s="126">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="E10" t="s" s="126">
         <v>0</v>
@@ -4515,19 +4518,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="127">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s" s="127">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s" s="127">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s" s="127">
+        <v>277</v>
+      </c>
+      <c r="E11" t="s" s="127">
         <v>278</v>
-      </c>
-      <c r="E11" t="s" s="127">
-        <v>279</v>
       </c>
       <c r="F11" t="s" s="127">
         <v>0</v>
@@ -4535,36 +4538,36 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="128">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s" s="128">
         <v>47</v>
       </c>
       <c r="C12" t="s" s="128">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s" s="128">
+        <v>279</v>
+      </c>
+      <c r="E12" t="s" s="128">
         <v>280</v>
       </c>
-      <c r="E12" t="s" s="128">
+      <c r="F12" t="s" s="128">
         <v>281</v>
-      </c>
-      <c r="F12" t="s" s="128">
-        <v>282</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="129">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s" s="129">
         <v>43</v>
       </c>
       <c r="C13" t="s" s="129">
-        <v>268</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s" s="129">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="E13" t="s" s="129">
         <v>0</v>
@@ -4575,13 +4578,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="130">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s" s="130">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s" s="130">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D14" t="s" s="130">
         <v>0</v>
@@ -4601,7 +4604,7 @@
         <v>284</v>
       </c>
       <c r="C15" t="s" s="131">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D15" t="s" s="131">
         <v>0</v>
@@ -4615,10 +4618,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="132">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s" s="132">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s" s="132">
         <v>10</v>
@@ -4635,16 +4638,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="133">
-        <v>205</v>
+        <v>286</v>
       </c>
       <c r="B17" t="s" s="133">
-        <v>206</v>
+        <v>287</v>
       </c>
       <c r="C17" t="s" s="133">
-        <v>10</v>
+        <v>267</v>
       </c>
       <c r="D17" t="s" s="133">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s" s="133">
         <v>0</v>
@@ -4655,39 +4658,39 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="134">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s" s="134">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="C18" t="s" s="134">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s" s="134">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E18" t="s" s="134">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F18" t="s" s="134">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="135">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s" s="135">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C19" t="s" s="135">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s" s="135">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E19" t="s" s="135">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F19" t="s" s="135">
         <v>0</v>
@@ -4695,16 +4698,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="136">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s" s="136">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s" s="136">
         <v>10</v>
       </c>
       <c r="D20" t="s" s="136">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E20" t="s" s="136">
         <v>0</v>
@@ -4715,33 +4718,33 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="137">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s" s="137">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="C21" t="s" s="137">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s" s="137">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E21" t="s" s="137">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F21" t="s" s="137">
-        <v>295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="138">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s" s="138">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s" s="138">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s" s="138">
         <v>296</v>
@@ -4758,10 +4761,10 @@
         <v>42</v>
       </c>
       <c r="B23" t="s" s="139">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s" s="139">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D23" t="s" s="139">
         <v>0</v>
@@ -4775,10 +4778,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="140">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s" s="140">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s" s="140">
         <v>10</v>
@@ -4798,10 +4801,10 @@
         <v>42</v>
       </c>
       <c r="B25" t="s" s="141">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s" s="141">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s" s="141">
         <v>300</v>
@@ -4815,7 +4818,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="142">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s" s="142">
         <v>43</v>
@@ -4841,7 +4844,7 @@
         <v>156</v>
       </c>
       <c r="C27" t="s" s="143">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s" s="143">
         <v>303</v>
@@ -4858,16 +4861,16 @@
         <v>42</v>
       </c>
       <c r="B28" t="s" s="144">
-        <v>219</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s" s="144">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s" s="144">
         <v>305</v>
       </c>
       <c r="E28" t="s" s="144">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="F28" t="s" s="144">
         <v>0</v>
@@ -4875,22 +4878,22 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="145">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="B29" t="s" s="145">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C29" t="s" s="145">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s" s="145">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E29" t="s" s="145">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F29" t="s" s="145">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30">
@@ -4898,50 +4901,50 @@
         <v>13</v>
       </c>
       <c r="B30" t="s" s="146">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s" s="146">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s" s="146">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E30" t="s" s="146">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F30" t="s" s="146">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="147">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s" s="147">
         <v>60</v>
       </c>
       <c r="C31" t="s" s="147">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s" s="147">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E31" t="s" s="147">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F31" t="s" s="147">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="148">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B32" t="s" s="148">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C32" t="s" s="148">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D32" t="s" s="148">
         <v>0</v>
@@ -4955,13 +4958,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="149">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s" s="149">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C33" t="s" s="149">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D33" t="s" s="149">
         <v>0</v>
@@ -4981,47 +4984,47 @@
         <v>43</v>
       </c>
       <c r="C34" t="s" s="150">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D34" t="s" s="150">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E34" t="s" s="150">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F34" t="s" s="150">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="151">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s" s="151">
         <v>39</v>
       </c>
       <c r="C35" t="s" s="151">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D35" t="s" s="151">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E35" t="s" s="151">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F35" t="s" s="151">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="152">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s" s="152">
-        <v>219</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s" s="152">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D36" t="s" s="152">
         <v>0</v>
@@ -5035,56 +5038,56 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="153">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s" s="153">
         <v>47</v>
       </c>
       <c r="C37" t="s" s="153">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D37" t="s" s="153">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E37" t="s" s="153">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F37" t="s" s="153">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="154">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s" s="154">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s" s="154">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s" s="154">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E38" t="s" s="154">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F38" t="s" s="154">
-        <v>329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="155">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B39" t="s" s="155">
-        <v>219</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s" s="155">
-        <v>268</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s" s="155">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="E39" t="s" s="155">
         <v>0</v>
@@ -5095,79 +5098,79 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="156">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s" s="156">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s" s="156">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s" s="156">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E40" t="s" s="156">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F40" t="s" s="156">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="157">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s" s="157">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C41" t="s" s="157">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D41" t="s" s="157">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E41" t="s" s="157">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F41" t="s" s="157">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="158">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s" s="158">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s" s="158">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D42" t="s" s="158">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E42" t="s" s="158">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F42" t="s" s="158">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="159">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s" s="159">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s" s="159">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s" s="159">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E43" t="s" s="159">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F43" t="s" s="159">
         <v>0</v>
@@ -5175,19 +5178,19 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="160">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s" s="160">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s" s="160">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s" s="160">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E44" t="s" s="160">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F44" t="s" s="160">
         <v>0</v>
@@ -5204,7 +5207,7 @@
         <v>10</v>
       </c>
       <c r="D45" t="s" s="161">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E45" t="s" s="161">
         <v>0</v>
@@ -5221,16 +5224,16 @@
         <v>47</v>
       </c>
       <c r="C46" t="s" s="162">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D46" t="s" s="162">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E46" t="s" s="162">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F46" t="s" s="162">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="47">
@@ -5241,27 +5244,27 @@
         <v>14</v>
       </c>
       <c r="C47" t="s" s="163">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D47" t="s" s="163">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E47" t="s" s="163">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F47" t="s" s="163">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="164">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="B48" t="s" s="164">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C48" t="s" s="164">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D48" t="s" s="164">
         <v>0</v>
@@ -5275,22 +5278,22 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="165">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s" s="165">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s" s="165">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D49" t="s" s="165">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E49" t="s" s="165">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F49" t="s" s="165">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50">
@@ -5301,13 +5304,13 @@
         <v>9</v>
       </c>
       <c r="C50" t="s" s="166">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D50" t="s" s="166">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E50" t="s" s="166">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F50" t="s" s="166">
         <v>0</v>
@@ -5348,10 +5351,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="168">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="168">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
@@ -5372,18 +5375,18 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="171">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B4" t="s" s="171">
-        <v>94</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="172">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B5" t="s" s="172">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6">
@@ -5396,10 +5399,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="174">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B7" t="s" s="174">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8">
@@ -5407,23 +5410,23 @@
         <v>10</v>
       </c>
       <c r="B8" t="s" s="175">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="176">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s" s="176">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="177">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s" s="177">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -5436,7 +5439,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="179">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B12" t="s" s="179">
         <v>0</v>
@@ -5452,7 +5455,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="181">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B14" t="s" s="181">
         <v>0</v>
@@ -5463,23 +5466,23 @@
         <v>1</v>
       </c>
       <c r="B15" t="s" s="182">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="183">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="B16" t="s" s="183">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="184">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B17" t="s" s="184">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18">
